--- a/Good.xlsx
+++ b/Good.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus20\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840ACD75-BA01-4C39-B65D-37ABF8412155}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137E3C37-5A8D-4927-9875-7EC4313A8E40}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="3375" windowWidth="18000" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="18000" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test-Cases" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -161,6 +161,12 @@
   </si>
   <si>
     <t>Rejected</t>
+  </si>
+  <si>
+    <t>sdtdft</t>
+  </si>
+  <si>
+    <t>fyfy</t>
   </si>
 </sst>
 </file>
@@ -540,7 +546,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,6 +671,9 @@
       <c r="I5" t="s">
         <v>46</v>
       </c>
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
@@ -701,6 +710,9 @@
       </c>
       <c r="I7" t="s">
         <v>46</v>
+      </c>
+      <c r="J7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
